--- a/biology/Biologie cellulaire et moléculaire/Marquage_des_acides_nucléiques/Marquage_des_acides_nucléiques.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Marquage_des_acides_nucléiques/Marquage_des_acides_nucléiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marquage_des_acides_nucl%C3%A9iques</t>
+          <t>Marquage_des_acides_nucléiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux principales méthodes de marquage des acides nucléiques. L'une nécessite l'utilisation de monomères des acides nucléiques (ADN ou ARN), les nucléotides, rendus radioactifs. Ceux-ci sont incorporés par la cellule dans les brins d'acides nucléiques néosynthétisés et les rendent radioactifs. L'autre se fait par le biais d'agents intercalants fluorescents. Ces éléments s'intercalent entre les bases des brins d'acides nucléiques, et les rendent ainsi fluorescents sous rayons UV.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marquage_des_acides_nucl%C3%A9iques</t>
+          <t>Marquage_des_acides_nucléiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le marquage in vivo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marquage In vivo peut être réalisé à l'aide de nucléotides radioactifs. 
 Si l'on souhaite marquer spécifiquement l'ADN, on utilise de la thymidine car celle-ci n'est pas présente dans l'ARN. Elle est rendue radioactive en remplaçant un atome d'hydrogène par un atome de tritium. Elle est ensuite phosphorylée pour donner de la thymidine monophosphate (TMP). Ce précurseur peut alors être introduit  In vivo et entrer ainsi en contact avec les cellules. La machinerie cellulaire continue la phosphorylation, formant successivement de la thymidine diphosphate puis de la thymidine triphosphate. Cette dernière molécule est susceptible d'être incorporée dans un brin d'ADN lors de sa synthèse. Le brin d'ADN néosynthétisé devient alors radioactif et donc détectable.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marquage_des_acides_nucl%C3%A9iques</t>
+          <t>Marquage_des_acides_nucléiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,49 @@
           <t>In vitro</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">In vitro, il est possible de marquer l'ADN dans sa masse. C’est-à-dire que l'on peut insérer des atomes radioactifs soit dans sa longueur (marquage interne), soit aux extrémités. 
 On peut également utiliser des marqueurs fluorescents comme le bromure d'éthidium ou l'iodure de propidium, qui sont des  agents intercalants des acides nucléiques, souvent employés pour révéler les électrophorèses par exemple.
-Marquage interne
-Marquage par translation de coupure (nick translation)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marquage_des_acides_nucléiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marquage_des_acides_nucl%C3%A9iques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>In vitro</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Marquage interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marquage par translation de coupure (nick translation)
 On utilise pour cela :
 l'endonucléase DNase I qui provoque des coupures simple brin au hasard sur l'ADN;
 le fragment de Klenow de l'ADN polymérase I (= enzyme) isolée d'Escherichia coli. Il est capable en utilisant comme modèle le brin complémentaire, d'ajouter des nucléotides à une extrémité 3'-OH lorsqu'un brin d'une molécule d'ADN est coupé (activité polymérase 5'→3'). Cette enzyme a aussi une activité 3'→5' exonucléasique (qui élimine des nucléotides en allant vers le côté 5'-P de la coupure);
